--- a/data/trans_camb/LAWTONB_2R3-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R3-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.9236181004942556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11.55421367963233</v>
+        <v>11.55421367963232</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>9.591234096878237</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4526875690672565</v>
+        <v>-0.4950426549254037</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.796358592110393</v>
+        <v>-7.644696435481796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3775831369352279</v>
+        <v>1.767396811365676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.794481977551139</v>
+        <v>1.529744361872872</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9820464030003442</v>
+        <v>0.8268368059411028</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.38183234707784</v>
+        <v>11.70009543767996</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.076761999873959</v>
+        <v>2.626855155225576</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7626388434626625</v>
+        <v>-1.01406119717824</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.29567967329884</v>
+        <v>10.99459896471229</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.1452147097546</v>
+        <v>20.40292176890234</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.382278028017698</v>
+        <v>10.08404949652821</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.27645360356275</v>
+        <v>23.45799640020545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.35903637484851</v>
+        <v>17.92001681917201</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.28642020613815</v>
+        <v>17.57370648336946</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.69001293854958</v>
+        <v>28.9217354422403</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.06791086040202</v>
+        <v>16.00699668932043</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.33001601938856</v>
+        <v>10.84243053734679</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.19781405682237</v>
+        <v>24.03474307833605</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04846242887784027</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6062519329026873</v>
+        <v>0.606251932902687</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4067754097800624</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03735462050116781</v>
+        <v>-0.03797067099703929</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3245217461165362</v>
+        <v>-0.3149240982402654</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02752137446209828</v>
+        <v>0.06549530278126001</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.03528978534745185</v>
+        <v>0.05467565333909966</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03326283617174015</v>
+        <v>0.01535306099026427</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4478553061793034</v>
+        <v>0.4340652612467952</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1105124307649996</v>
+        <v>0.1029817557590863</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03251533939380419</v>
+        <v>-0.0438477106017533</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4568327895988901</v>
+        <v>0.4521120162214939</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.421469088111712</v>
+        <v>1.380374203784398</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6652593054845279</v>
+        <v>0.6880461815475959</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.593383566326124</v>
+        <v>1.577509948335443</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9739291963799573</v>
+        <v>0.8990943120019602</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8059703059263564</v>
+        <v>0.8857599114536325</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.431019659471181</v>
+        <v>1.464274697056203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8240969468435443</v>
+        <v>0.8360234752218852</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.593330991931927</v>
+        <v>0.5522871608437289</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.269424850013208</v>
+        <v>1.270655011213124</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>6.974769219570661</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>16.49756429191731</v>
+        <v>16.49756429191732</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>9.632524034460074</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.244641633564821</v>
+        <v>-2.85463745597817</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.482081254887108</v>
+        <v>-8.283214149794068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.369382495291009</v>
+        <v>-1.968565012254329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.670096131215131</v>
+        <v>4.579564346203632</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1603752568088165</v>
+        <v>-1.17770809470906</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.504893054904</v>
+        <v>9.4665307302168</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.700967717137532</v>
+        <v>3.961699011696763</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.164778078057711</v>
+        <v>-1.455619975131727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.972604126463904</v>
+        <v>7.628259542866463</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.13662188859348</v>
+        <v>14.01742517781273</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.426704977557783</v>
+        <v>6.254903136489514</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.04784761921533</v>
+        <v>12.22162358590546</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.16225823593213</v>
+        <v>20.81688948457358</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.84470251033851</v>
+        <v>14.53956294819333</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.74786616997834</v>
+        <v>22.10652096759969</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.12141653526596</v>
+        <v>15.60334424271028</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.874514275448487</v>
+        <v>9.600735663902622</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.42826543203824</v>
+        <v>16.64834345347205</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.4896467938878748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.158171576463091</v>
+        <v>1.158171576463092</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.670798564418284</v>
@@ -983,7 +983,7 @@
         <v>0.2452714405519134</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.8415153002015873</v>
+        <v>0.8415153002015877</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1870912002570213</v>
+        <v>-0.1766141336875161</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4468315994897544</v>
+        <v>-0.4614830521275433</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1371387897193348</v>
+        <v>-0.118102368453206</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3093428737413555</v>
+        <v>0.2510233307378277</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02410323732222861</v>
+        <v>-0.06603398840416323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.482513422544227</v>
+        <v>0.4905510900277962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2018920845254557</v>
+        <v>0.2185807690609534</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1396970313371579</v>
+        <v>-0.09474319630944464</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4045145922065541</v>
+        <v>0.4252448029278187</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.316875437750948</v>
+        <v>1.267534643002282</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6121658855601639</v>
+        <v>0.5468164434000776</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.162210930099127</v>
+        <v>1.157469437902005</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.883941909927817</v>
+        <v>1.907676799336523</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.417009674727499</v>
+        <v>1.446177787166422</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.18280078636958</v>
+        <v>2.103369518665616</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.241104168092818</v>
+        <v>1.340005356143297</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.740889220826476</v>
+        <v>0.7903165022515993</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.432809704081175</v>
+        <v>1.447971382439487</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>7.359707849467434</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.687109242447095</v>
+        <v>9.6871092424471</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.130289784838329</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.196719491923411</v>
+        <v>1.600442201804334</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.02309813299875</v>
+        <v>-2.712273715851111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.161177243223541</v>
+        <v>-2.428311674075241</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.565427792497888</v>
+        <v>-4.596445223133375</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.632479778159377</v>
+        <v>-1.45923816773773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.603218891219883</v>
+        <v>1.517533330071019</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6930590804229571</v>
+        <v>0.3297040358425605</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2124178909276384</v>
+        <v>-0.4101038234660533</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.652957902955948</v>
+        <v>1.707173831416442</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.01938364611701</v>
+        <v>17.12760684609896</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.92540734563379</v>
+        <v>10.8430355257075</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.1260945015649</v>
+        <v>8.263080866666868</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.924923064115</v>
+        <v>12.8569375506755</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.46016326189518</v>
+        <v>16.73569601520239</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.50074771337555</v>
+        <v>16.53288458521286</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.85694320121403</v>
+        <v>12.30324463870807</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.90267097336514</v>
+        <v>11.46237984901144</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.50119878879433</v>
+        <v>11.1744704442056</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.4790152608045535</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6304969239436288</v>
+        <v>0.6304969239436291</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6030650907343982</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07779763085709243</v>
+        <v>0.05824369789766969</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.289524990353367</v>
+        <v>-0.2719285669836543</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2632454613633062</v>
+        <v>-0.2683953479341863</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2413771789648165</v>
+        <v>-0.232601196082962</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1627686526031952</v>
+        <v>-0.1224105214822352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02653430334792743</v>
+        <v>0.06244144838503286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03987594232440241</v>
+        <v>0.008396785000816443</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02143115058382642</v>
+        <v>-0.03975267338210235</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09947422815555755</v>
+        <v>0.1047253428575488</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.510318075188565</v>
+        <v>3.170363821575453</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.286851097283379</v>
+        <v>2.175632391193623</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.63793839748931</v>
+        <v>1.538518356431971</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.19669813646239</v>
+        <v>1.121060252437654</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.452287590667917</v>
+        <v>1.54491075889804</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.53685144349258</v>
+        <v>1.639578946647364</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.370622982962996</v>
+        <v>1.34753617277558</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.229346169783321</v>
+        <v>1.268899875749506</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.320369013682879</v>
+        <v>1.282007638783165</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.01362729670393</v>
+        <v>3.791079787111688</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.50017502159082</v>
+        <v>1.395257210070622</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.282629520034115</v>
+        <v>0.4122825776770376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.3941629656846</v>
+        <v>-11.68285297540492</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.22313464490648</v>
+        <v>-21.16056024855505</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.16314134475404</v>
+        <v>-11.93132463556285</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9986174679996787</v>
+        <v>0.4166271417552069</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.484686547616262</v>
+        <v>-4.890957732277569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.196329926136249</v>
+        <v>-1.851130878467738</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.01095104227883</v>
+        <v>23.93389923145711</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>19.95152891631868</v>
+        <v>19.25132974086387</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.96576297426431</v>
+        <v>13.70571662484804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.71196017822219</v>
+        <v>19.80871089680208</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.072035449327577</v>
+        <v>5.764192236960914</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.11278213833614</v>
+        <v>12.51341764385304</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.6686371292929</v>
+        <v>18.09246246641872</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.62901892166483</v>
+        <v>10.74926277181057</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.99764606192221</v>
+        <v>11.79215223898486</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2907845680723989</v>
+        <v>-0.001736842104958049</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2725769016113647</v>
+        <v>-0.1893994147494066</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.07009214113015728</v>
+        <v>-0.187416277108034</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4396343856779103</v>
+        <v>-0.4928188432730856</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7698408551276097</v>
+        <v>-0.8474450909120194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4850085015661895</v>
+        <v>-0.4511495346225884</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0143157315286639</v>
+        <v>-0.05931979293433281</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3990440672265737</v>
+        <v>-0.3589116308174218</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1693647016260941</v>
+        <v>-0.1265244744693328</v>
       </c>
     </row>
     <row r="27">
@@ -1460,22 +1460,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3.283676445226402</v>
+        <v>3.607292528567926</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.094409281981422</v>
+        <v>1.230205283811759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.09478505953967</v>
+        <v>2.137774374744026</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.584214735127523</v>
+        <v>3.819194355077118</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.764984199094553</v>
+        <v>2.822512857672043</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.041520163964929</v>
+        <v>3.06480475509951</v>
       </c>
     </row>
     <row r="28">
@@ -1496,7 +1496,7 @@
         <v>2.460128344424584</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.247693445415775</v>
+        <v>3.247693445415781</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.778746230635891</v>
@@ -1505,7 +1505,7 @@
         <v>5.253165483734448</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.876299762381024</v>
+        <v>9.876299762381018</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.947631041616806</v>
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.37001989061235</v>
+        <v>3.437693225596948</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.761177384672032</v>
+        <v>-1.534943963281999</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8001154912106567</v>
+        <v>-0.3608712057270493</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.228669354229404</v>
+        <v>3.053637232006148</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.4846740439904001</v>
+        <v>0.8310414844308058</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.180676585091688</v>
+        <v>6.028266045811136</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.407023396625174</v>
+        <v>4.853464359087936</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8955381530707398</v>
+        <v>0.6898186513528513</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.177929712261909</v>
+        <v>4.006203951316713</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.7831821773692</v>
+        <v>12.86142757611959</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.463273273364467</v>
+        <v>6.688424284878644</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.642806694795413</v>
+        <v>6.6847637744295</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.17670802091845</v>
+        <v>12.12947664902473</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.823647522861453</v>
+        <v>10.07357079154397</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.69396627065383</v>
+        <v>13.35402634465054</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.19323845705504</v>
+        <v>11.5716897137598</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.045731396685616</v>
+        <v>7.123796739392807</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.570316107885533</v>
+        <v>9.503569609922708</v>
       </c>
     </row>
     <row r="31">
@@ -1601,7 +1601,7 @@
         <v>0.1927540014987786</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.254460670177623</v>
+        <v>0.2544606701776235</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4237877571614553</v>
@@ -1610,7 +1610,7 @@
         <v>0.2861935782892618</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5380629218716033</v>
+        <v>0.538062921871603</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4971446105707394</v>
@@ -1630,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2431360645744612</v>
+        <v>0.2117004074959039</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1155245545857474</v>
+        <v>-0.1071124033897903</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04967501753268507</v>
+        <v>-0.02736677951900714</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1441994956222075</v>
+        <v>0.1457915519064767</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01352006360452562</v>
+        <v>0.03765192728179519</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2910890944532306</v>
+        <v>0.2843351953106875</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2501435877561219</v>
+        <v>0.2521089174319255</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04758384602655457</v>
+        <v>0.03796274867757241</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2291236252904381</v>
+        <v>0.2200267933797996</v>
       </c>
     </row>
     <row r="33">
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.228369505253095</v>
+        <v>1.14825080026756</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.59958774754329</v>
+        <v>0.621217498960234</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6361637553377688</v>
+        <v>0.6300455391155432</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7593235131703239</v>
+        <v>0.7611659656523017</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.607885278698417</v>
+        <v>0.6068904775276972</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8650683439423577</v>
+        <v>0.8265316635445384</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7713889752419496</v>
+        <v>0.7752023339357155</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4907777509257264</v>
+        <v>0.5016182397596121</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.655842272908854</v>
+        <v>0.6732559515724903</v>
       </c>
     </row>
     <row r="34">
